--- a/indicadoresvarios.xlsx
+++ b/indicadoresvarios.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t xml:space="preserve">PROVINCIA</t>
   </si>
   <si>
     <t xml:space="preserve">densidadpob</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">CARHUAZ</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS FERMIN FITZCARRALD</t>
+    <t xml:space="preserve">CARLOS F. FITZCARRALD</t>
   </si>
   <si>
     <t xml:space="preserve">CASMA</t>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t xml:space="preserve">ALTO AMAZONAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEM DEL MARANON</t>
   </si>
   <si>
     <t xml:space="preserve">LORETO</t>
@@ -5037,25 +5040,25 @@
         <v>161</v>
       </c>
       <c r="C139" t="n">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="D139" t="n">
-        <v>32.6</v>
+        <v>31.3</v>
       </c>
       <c r="E139" t="n">
-        <v>10.6</v>
+        <v>18.69</v>
       </c>
       <c r="F139" t="n">
-        <v>4.2</v>
+        <v>6.67</v>
       </c>
       <c r="G139" t="n">
-        <v>16.07</v>
+        <v>23.82</v>
       </c>
       <c r="H139" t="n">
-        <v>6.5</v>
+        <v>8.86</v>
       </c>
       <c r="I139" t="n">
-        <v>15.6</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="140">
@@ -5066,25 +5069,25 @@
         <v>162</v>
       </c>
       <c r="C140" t="n">
-        <v>1.47</v>
+        <v>0.92</v>
       </c>
       <c r="D140" t="n">
-        <v>31.7</v>
+        <v>32.6</v>
       </c>
       <c r="E140" t="n">
-        <v>9.37</v>
+        <v>10.6</v>
       </c>
       <c r="F140" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="G140" t="n">
-        <v>11.76</v>
+        <v>16.07</v>
       </c>
       <c r="H140" t="n">
-        <v>6.35</v>
+        <v>6.5</v>
       </c>
       <c r="I140" t="n">
-        <v>13.09</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="141">
@@ -5095,25 +5098,25 @@
         <v>163</v>
       </c>
       <c r="C141" t="n">
-        <v>4.11</v>
+        <v>1.47</v>
       </c>
       <c r="D141" t="n">
-        <v>24.6</v>
+        <v>31.7</v>
       </c>
       <c r="E141" t="n">
-        <v>2.87</v>
+        <v>9.37</v>
       </c>
       <c r="F141" t="n">
-        <v>1.73</v>
+        <v>4.22</v>
       </c>
       <c r="G141" t="n">
-        <v>8.14</v>
+        <v>11.76</v>
       </c>
       <c r="H141" t="n">
-        <v>1.67</v>
+        <v>6.35</v>
       </c>
       <c r="I141" t="n">
-        <v>4.07</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="142">
@@ -5124,25 +5127,25 @@
         <v>164</v>
       </c>
       <c r="C142" t="n">
-        <v>1.33</v>
+        <v>4.11</v>
       </c>
       <c r="D142" t="n">
-        <v>31</v>
+        <v>24.6</v>
       </c>
       <c r="E142" t="n">
-        <v>4.3</v>
+        <v>2.87</v>
       </c>
       <c r="F142" t="n">
-        <v>3.05</v>
+        <v>1.73</v>
       </c>
       <c r="G142" t="n">
-        <v>6.12</v>
+        <v>8.14</v>
       </c>
       <c r="H142" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="I142" t="n">
-        <v>6.46</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="143">
@@ -5153,1530 +5156,1559 @@
         <v>165</v>
       </c>
       <c r="C143" t="n">
-        <v>2.11</v>
+        <v>1.33</v>
       </c>
       <c r="D143" t="n">
-        <v>35.3</v>
+        <v>31</v>
       </c>
       <c r="E143" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="F143" t="n">
-        <v>2.31</v>
+        <v>3.05</v>
       </c>
       <c r="G143" t="n">
-        <v>5.82</v>
+        <v>6.12</v>
       </c>
       <c r="H143" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="I143" t="n">
-        <v>5.76</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" t="s">
         <v>166</v>
       </c>
-      <c r="B144" t="s">
-        <v>167</v>
-      </c>
       <c r="C144" t="n">
-        <v>0.73</v>
+        <v>2.11</v>
       </c>
       <c r="D144" t="n">
-        <v>24.9</v>
+        <v>35.3</v>
       </c>
       <c r="E144" t="n">
-        <v>4.81</v>
+        <v>3.8</v>
       </c>
       <c r="F144" t="n">
-        <v>3.99</v>
+        <v>2.31</v>
       </c>
       <c r="G144" t="n">
-        <v>5.22</v>
+        <v>5.82</v>
       </c>
       <c r="H144" t="n">
-        <v>2.95</v>
+        <v>2.14</v>
       </c>
       <c r="I144" t="n">
-        <v>7.6</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
         <v>168</v>
       </c>
       <c r="C145" t="n">
-        <v>0.51</v>
+        <v>0.73</v>
       </c>
       <c r="D145" t="n">
-        <v>9.2</v>
+        <v>24.9</v>
       </c>
       <c r="E145" t="n">
-        <v>3.17</v>
+        <v>4.81</v>
       </c>
       <c r="F145" t="n">
-        <v>2.08</v>
+        <v>3.99</v>
       </c>
       <c r="G145" t="n">
-        <v>5.78</v>
+        <v>5.22</v>
       </c>
       <c r="H145" t="n">
-        <v>1.51</v>
+        <v>2.95</v>
       </c>
       <c r="I145" t="n">
-        <v>6.07</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
         <v>169</v>
       </c>
       <c r="C146" t="n">
-        <v>2.17</v>
+        <v>0.51</v>
       </c>
       <c r="D146" t="n">
-        <v>24.3</v>
+        <v>9.2</v>
       </c>
       <c r="E146" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="F146" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="G146" t="n">
-        <v>5.58</v>
+        <v>5.78</v>
       </c>
       <c r="H146" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="I146" t="n">
-        <v>4.42</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" t="s">
         <v>170</v>
       </c>
-      <c r="B147" t="s">
-        <v>171</v>
-      </c>
       <c r="C147" t="n">
-        <v>4.38</v>
+        <v>2.17</v>
       </c>
       <c r="D147" t="n">
-        <v>11.8</v>
+        <v>24.3</v>
       </c>
       <c r="E147" t="n">
-        <v>7.12</v>
+        <v>2.84</v>
       </c>
       <c r="F147" t="n">
-        <v>5.56</v>
+        <v>2.27</v>
       </c>
       <c r="G147" t="n">
-        <v>8.32</v>
+        <v>5.58</v>
       </c>
       <c r="H147" t="n">
-        <v>2.64</v>
+        <v>1.47</v>
       </c>
       <c r="I147" t="n">
-        <v>12.38</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
         <v>172</v>
       </c>
       <c r="C148" t="n">
-        <v>46.19</v>
+        <v>4.38</v>
       </c>
       <c r="D148" t="n">
-        <v>14.7</v>
+        <v>11.8</v>
       </c>
       <c r="E148" t="n">
-        <v>1.98</v>
+        <v>7.12</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>5.56</v>
       </c>
       <c r="G148" t="n">
-        <v>0.15</v>
+        <v>8.32</v>
       </c>
       <c r="H148" t="n">
-        <v>0.74</v>
+        <v>2.64</v>
       </c>
       <c r="I148" t="n">
-        <v>3.24</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
         <v>173</v>
       </c>
       <c r="C149" t="n">
-        <v>8.4</v>
+        <v>46.19</v>
       </c>
       <c r="D149" t="n">
-        <v>11.4</v>
+        <v>14.7</v>
       </c>
       <c r="E149" t="n">
-        <v>6.28</v>
+        <v>1.98</v>
       </c>
       <c r="F149" t="n">
-        <v>5.29</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>12.15</v>
+        <v>0.15</v>
       </c>
       <c r="H149" t="n">
-        <v>2.55</v>
+        <v>0.74</v>
       </c>
       <c r="I149" t="n">
-        <v>10.17</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" t="s">
         <v>174</v>
       </c>
-      <c r="B150" t="s">
-        <v>175</v>
-      </c>
       <c r="C150" t="n">
-        <v>25.33</v>
+        <v>8.4</v>
       </c>
       <c r="D150" t="n">
-        <v>29.1</v>
+        <v>11.4</v>
       </c>
       <c r="E150" t="n">
-        <v>11.99</v>
+        <v>6.28</v>
       </c>
       <c r="F150" t="n">
-        <v>11.7</v>
+        <v>5.29</v>
       </c>
       <c r="G150" t="n">
-        <v>12.45</v>
+        <v>12.15</v>
       </c>
       <c r="H150" t="n">
-        <v>6.3</v>
+        <v>2.55</v>
       </c>
       <c r="I150" t="n">
-        <v>17.57</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
         <v>176</v>
       </c>
       <c r="C151" t="n">
-        <v>4.39</v>
+        <v>25.33</v>
       </c>
       <c r="D151" t="n">
-        <v>23.2</v>
+        <v>29.1</v>
       </c>
       <c r="E151" t="n">
-        <v>10.14</v>
+        <v>11.99</v>
       </c>
       <c r="F151" t="n">
-        <v>4.68</v>
+        <v>11.7</v>
       </c>
       <c r="G151" t="n">
-        <v>13.9</v>
+        <v>12.45</v>
       </c>
       <c r="H151" t="n">
-        <v>6.48</v>
+        <v>6.3</v>
       </c>
       <c r="I151" t="n">
-        <v>14.41</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
         <v>177</v>
       </c>
       <c r="C152" t="n">
-        <v>31.67</v>
+        <v>4.39</v>
       </c>
       <c r="D152" t="n">
-        <v>19.4</v>
+        <v>23.2</v>
       </c>
       <c r="E152" t="n">
-        <v>6.2</v>
+        <v>10.14</v>
       </c>
       <c r="F152" t="n">
-        <v>4.83</v>
+        <v>4.68</v>
       </c>
       <c r="G152" t="n">
-        <v>10.66</v>
+        <v>13.9</v>
       </c>
       <c r="H152" t="n">
-        <v>2.67</v>
+        <v>6.48</v>
       </c>
       <c r="I152" t="n">
-        <v>9.87</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" t="s">
         <v>178</v>
       </c>
-      <c r="B153" t="s">
-        <v>179</v>
-      </c>
       <c r="C153" t="n">
-        <v>26.46</v>
+        <v>31.67</v>
       </c>
       <c r="D153" t="n">
-        <v>33.9</v>
+        <v>19.4</v>
       </c>
       <c r="E153" t="n">
-        <v>20.46</v>
+        <v>6.2</v>
       </c>
       <c r="F153" t="n">
-        <v>6.37</v>
+        <v>4.83</v>
       </c>
       <c r="G153" t="n">
-        <v>22.64</v>
+        <v>10.66</v>
       </c>
       <c r="H153" t="n">
-        <v>14</v>
+        <v>2.67</v>
       </c>
       <c r="I153" t="n">
-        <v>27.27</v>
+        <v>9.87</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B154" t="s">
         <v>180</v>
       </c>
       <c r="C154" t="n">
-        <v>29.22</v>
+        <v>26.46</v>
       </c>
       <c r="D154" t="n">
-        <v>41.3</v>
+        <v>33.9</v>
       </c>
       <c r="E154" t="n">
-        <v>24.45</v>
+        <v>20.46</v>
       </c>
       <c r="F154" t="n">
-        <v>6.51</v>
+        <v>6.37</v>
       </c>
       <c r="G154" t="n">
-        <v>27.38</v>
+        <v>22.64</v>
       </c>
       <c r="H154" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="I154" t="n">
-        <v>35.19</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B155" t="s">
         <v>181</v>
       </c>
       <c r="C155" t="n">
-        <v>41.83</v>
+        <v>29.22</v>
       </c>
       <c r="D155" t="n">
-        <v>27.1</v>
+        <v>41.3</v>
       </c>
       <c r="E155" t="n">
-        <v>13.72</v>
+        <v>24.45</v>
       </c>
       <c r="F155" t="n">
-        <v>10.09</v>
+        <v>6.51</v>
       </c>
       <c r="G155" t="n">
-        <v>19</v>
+        <v>27.38</v>
       </c>
       <c r="H155" t="n">
-        <v>10.12</v>
+        <v>13.6</v>
       </c>
       <c r="I155" t="n">
-        <v>17.4</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
         <v>182</v>
       </c>
       <c r="C156" t="n">
-        <v>60.8</v>
+        <v>41.83</v>
       </c>
       <c r="D156" t="n">
-        <v>17.2</v>
+        <v>27.1</v>
       </c>
       <c r="E156" t="n">
-        <v>5.51</v>
+        <v>13.72</v>
       </c>
       <c r="F156" t="n">
-        <v>5.16</v>
+        <v>10.09</v>
       </c>
       <c r="G156" t="n">
-        <v>12.85</v>
+        <v>19</v>
       </c>
       <c r="H156" t="n">
-        <v>3.96</v>
+        <v>10.12</v>
       </c>
       <c r="I156" t="n">
-        <v>7.06</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157" t="s">
         <v>183</v>
       </c>
       <c r="C157" t="n">
-        <v>107.22</v>
+        <v>60.8</v>
       </c>
       <c r="D157" t="n">
-        <v>19</v>
+        <v>17.2</v>
       </c>
       <c r="E157" t="n">
-        <v>7.43</v>
+        <v>5.51</v>
       </c>
       <c r="F157" t="n">
-        <v>5.97</v>
+        <v>5.16</v>
       </c>
       <c r="G157" t="n">
-        <v>17.14</v>
+        <v>12.85</v>
       </c>
       <c r="H157" t="n">
-        <v>4.35</v>
+        <v>3.96</v>
       </c>
       <c r="I157" t="n">
-        <v>10.33</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B158" t="s">
         <v>184</v>
       </c>
       <c r="C158" t="n">
-        <v>9.78</v>
+        <v>107.22</v>
       </c>
       <c r="D158" t="n">
-        <v>28.3</v>
+        <v>19</v>
       </c>
       <c r="E158" t="n">
-        <v>4.62</v>
+        <v>7.43</v>
       </c>
       <c r="F158" t="n">
-        <v>4.39</v>
+        <v>5.97</v>
       </c>
       <c r="G158" t="n">
-        <v>8.17</v>
+        <v>17.14</v>
       </c>
       <c r="H158" t="n">
-        <v>2.26</v>
+        <v>4.35</v>
       </c>
       <c r="I158" t="n">
-        <v>6.99</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B159" t="s">
         <v>185</v>
       </c>
       <c r="C159" t="n">
-        <v>53.04</v>
+        <v>9.78</v>
       </c>
       <c r="D159" t="n">
-        <v>14.2</v>
+        <v>28.3</v>
       </c>
       <c r="E159" t="n">
-        <v>6.25</v>
+        <v>4.62</v>
       </c>
       <c r="F159" t="n">
-        <v>5.6</v>
+        <v>4.39</v>
       </c>
       <c r="G159" t="n">
-        <v>12.21</v>
+        <v>8.17</v>
       </c>
       <c r="H159" t="n">
-        <v>5.15</v>
+        <v>2.26</v>
       </c>
       <c r="I159" t="n">
-        <v>7.31</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B160" t="s">
         <v>186</v>
       </c>
       <c r="C160" t="n">
-        <v>46.22</v>
+        <v>53.04</v>
       </c>
       <c r="D160" t="n">
-        <v>17.7</v>
+        <v>14.2</v>
       </c>
       <c r="E160" t="n">
-        <v>1.9</v>
+        <v>6.25</v>
       </c>
       <c r="F160" t="n">
-        <v>1.84</v>
+        <v>5.6</v>
       </c>
       <c r="G160" t="n">
-        <v>4.47</v>
+        <v>12.21</v>
       </c>
       <c r="H160" t="n">
-        <v>1.36</v>
+        <v>5.15</v>
       </c>
       <c r="I160" t="n">
-        <v>2.43</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" t="s">
         <v>187</v>
       </c>
-      <c r="B161" t="s">
-        <v>188</v>
-      </c>
       <c r="C161" t="n">
-        <v>5965.96</v>
+        <v>46.22</v>
       </c>
       <c r="D161" t="n">
-        <v>10.1</v>
+        <v>17.7</v>
       </c>
       <c r="E161" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="F161" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G161"/>
+        <v>1.84</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4.47</v>
+      </c>
       <c r="H161" t="n">
-        <v>0.69</v>
+        <v>1.36</v>
       </c>
       <c r="I161" t="n">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>188</v>
+      </c>
+      <c r="B162" t="s">
         <v>189</v>
       </c>
-      <c r="B162" t="s">
-        <v>190</v>
-      </c>
       <c r="C162" t="n">
-        <v>27.53</v>
+        <v>5965.96</v>
       </c>
       <c r="D162" t="n">
-        <v>45.3</v>
+        <v>10.1</v>
       </c>
       <c r="E162" t="n">
-        <v>17.07</v>
+        <v>1.56</v>
       </c>
       <c r="F162" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="G162" t="n">
-        <v>20.16</v>
-      </c>
+        <v>1.56</v>
+      </c>
+      <c r="G162"/>
       <c r="H162" t="n">
-        <v>7.3</v>
+        <v>0.69</v>
       </c>
       <c r="I162" t="n">
-        <v>25.92</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
         <v>191</v>
       </c>
       <c r="C163" t="n">
-        <v>6.03</v>
+        <v>27.53</v>
       </c>
       <c r="D163" t="n">
-        <v>52.1</v>
+        <v>45.3</v>
       </c>
       <c r="E163" t="n">
-        <v>15.64</v>
+        <v>17.07</v>
       </c>
       <c r="F163" t="n">
-        <v>12.26</v>
+        <v>9.06</v>
       </c>
       <c r="G163" t="n">
-        <v>17.91</v>
+        <v>20.16</v>
       </c>
       <c r="H163" t="n">
-        <v>7.16</v>
+        <v>7.3</v>
       </c>
       <c r="I163" t="n">
-        <v>24.82</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B164" t="s">
         <v>192</v>
       </c>
       <c r="C164" t="n">
-        <v>31.74</v>
+        <v>6.03</v>
       </c>
       <c r="D164" t="n">
-        <v>25.3</v>
+        <v>52.1</v>
       </c>
       <c r="E164" t="n">
-        <v>10.72</v>
+        <v>15.64</v>
       </c>
       <c r="F164" t="n">
-        <v>5.95</v>
+        <v>12.26</v>
       </c>
       <c r="G164" t="n">
-        <v>12.65</v>
+        <v>17.91</v>
       </c>
       <c r="H164" t="n">
-        <v>5.14</v>
+        <v>7.16</v>
       </c>
       <c r="I164" t="n">
-        <v>16.51</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s">
         <v>193</v>
       </c>
       <c r="C165" t="n">
-        <v>14.47</v>
+        <v>31.74</v>
       </c>
       <c r="D165" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="E165" t="n">
-        <v>14.56</v>
+        <v>10.72</v>
       </c>
       <c r="F165" t="n">
-        <v>5.83</v>
+        <v>5.95</v>
       </c>
       <c r="G165" t="n">
-        <v>18.56</v>
+        <v>12.65</v>
       </c>
       <c r="H165" t="n">
-        <v>6.34</v>
+        <v>5.14</v>
       </c>
       <c r="I165" t="n">
-        <v>22.94</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B166" t="s">
         <v>194</v>
       </c>
       <c r="C166" t="n">
-        <v>24.78</v>
+        <v>14.47</v>
       </c>
       <c r="D166" t="n">
-        <v>30.1</v>
+        <v>25</v>
       </c>
       <c r="E166" t="n">
-        <v>20.05</v>
+        <v>14.56</v>
       </c>
       <c r="F166" t="n">
-        <v>8.64</v>
+        <v>5.83</v>
       </c>
       <c r="G166" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="H166" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="I166" t="n">
         <v>22.94</v>
-      </c>
-      <c r="H166" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="I166" t="n">
-        <v>31.04</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
         <v>195</v>
       </c>
       <c r="C167" t="n">
-        <v>8.33</v>
+        <v>24.78</v>
       </c>
       <c r="D167" t="n">
-        <v>32.6</v>
+        <v>30.1</v>
       </c>
       <c r="E167" t="n">
-        <v>11.48</v>
+        <v>20.05</v>
       </c>
       <c r="F167" t="n">
-        <v>7.91</v>
+        <v>8.64</v>
       </c>
       <c r="G167" t="n">
-        <v>13.7</v>
+        <v>22.94</v>
       </c>
       <c r="H167" t="n">
-        <v>4.59</v>
+        <v>7.87</v>
       </c>
       <c r="I167" t="n">
-        <v>18.23</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
         <v>196</v>
       </c>
       <c r="C168" t="n">
-        <v>11.59</v>
+        <v>8.33</v>
       </c>
       <c r="D168" t="n">
-        <v>39.4</v>
+        <v>32.6</v>
       </c>
       <c r="E168" t="n">
-        <v>13.82</v>
+        <v>11.48</v>
       </c>
       <c r="F168" t="n">
-        <v>10.26</v>
+        <v>7.91</v>
       </c>
       <c r="G168" t="n">
-        <v>17.08</v>
+        <v>13.7</v>
       </c>
       <c r="H168" t="n">
-        <v>6.43</v>
+        <v>4.59</v>
       </c>
       <c r="I168" t="n">
-        <v>20.55</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
         <v>197</v>
       </c>
       <c r="C169" t="n">
-        <v>27.67</v>
+        <v>11.59</v>
       </c>
       <c r="D169" t="n">
-        <v>32.1</v>
+        <v>39.4</v>
       </c>
       <c r="E169" t="n">
-        <v>20.83</v>
+        <v>13.82</v>
       </c>
       <c r="F169" t="n">
-        <v>12.79</v>
+        <v>10.26</v>
       </c>
       <c r="G169" t="n">
-        <v>23.98</v>
+        <v>17.08</v>
       </c>
       <c r="H169" t="n">
-        <v>9.64</v>
+        <v>6.43</v>
       </c>
       <c r="I169" t="n">
-        <v>31.18</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B170" t="s">
         <v>198</v>
       </c>
       <c r="C170" t="n">
-        <v>35.3</v>
+        <v>27.67</v>
       </c>
       <c r="D170" t="n">
-        <v>36.6</v>
+        <v>32.1</v>
       </c>
       <c r="E170" t="n">
-        <v>10.3</v>
+        <v>20.83</v>
       </c>
       <c r="F170" t="n">
-        <v>4.33</v>
+        <v>12.79</v>
       </c>
       <c r="G170" t="n">
-        <v>19.32</v>
+        <v>23.98</v>
       </c>
       <c r="H170" t="n">
-        <v>4.29</v>
+        <v>9.64</v>
       </c>
       <c r="I170" t="n">
-        <v>15.94</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
         <v>199</v>
       </c>
       <c r="C171" t="n">
-        <v>15.74</v>
+        <v>35.3</v>
       </c>
       <c r="D171" t="n">
-        <v>40.8</v>
+        <v>36.6</v>
       </c>
       <c r="E171" t="n">
-        <v>11.69</v>
+        <v>10.3</v>
       </c>
       <c r="F171" t="n">
-        <v>7.21</v>
+        <v>4.33</v>
       </c>
       <c r="G171" t="n">
-        <v>20.93</v>
+        <v>19.32</v>
       </c>
       <c r="H171" t="n">
-        <v>6.2</v>
+        <v>4.29</v>
       </c>
       <c r="I171" t="n">
-        <v>18.17</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
         <v>200</v>
       </c>
       <c r="C172" t="n">
-        <v>105.71</v>
+        <v>15.74</v>
       </c>
       <c r="D172" t="n">
-        <v>26.5</v>
+        <v>40.8</v>
       </c>
       <c r="E172" t="n">
-        <v>5.8</v>
+        <v>11.69</v>
       </c>
       <c r="F172" t="n">
-        <v>4.53</v>
+        <v>7.21</v>
       </c>
       <c r="G172" t="n">
-        <v>20.07</v>
+        <v>20.93</v>
       </c>
       <c r="H172" t="n">
-        <v>1.88</v>
+        <v>6.2</v>
       </c>
       <c r="I172" t="n">
-        <v>9.45</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B173" t="s">
         <v>201</v>
       </c>
       <c r="C173" t="n">
-        <v>5.24</v>
+        <v>105.71</v>
       </c>
       <c r="D173" t="n">
-        <v>35.3</v>
+        <v>26.5</v>
       </c>
       <c r="E173" t="n">
-        <v>12.23</v>
+        <v>5.8</v>
       </c>
       <c r="F173" t="n">
-        <v>9.61</v>
+        <v>4.53</v>
       </c>
       <c r="G173" t="n">
-        <v>13.16</v>
+        <v>20.07</v>
       </c>
       <c r="H173" t="n">
-        <v>6.13</v>
+        <v>1.88</v>
       </c>
       <c r="I173" t="n">
-        <v>19.6</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
         <v>202</v>
       </c>
       <c r="C174" t="n">
-        <v>163.33</v>
+        <v>5.24</v>
       </c>
       <c r="D174" t="n">
-        <v>24.1</v>
+        <v>35.3</v>
       </c>
       <c r="E174" t="n">
-        <v>19.15</v>
+        <v>12.23</v>
       </c>
       <c r="F174" t="n">
-        <v>10.26</v>
+        <v>9.61</v>
       </c>
       <c r="G174" t="n">
-        <v>24.26</v>
+        <v>13.16</v>
       </c>
       <c r="H174" t="n">
-        <v>8.34</v>
+        <v>6.13</v>
       </c>
       <c r="I174" t="n">
-        <v>29.47</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>190</v>
+      </c>
+      <c r="B175" t="s">
         <v>203</v>
       </c>
-      <c r="B175" t="s">
-        <v>204</v>
-      </c>
       <c r="C175" t="n">
-        <v>6.12</v>
+        <v>163.33</v>
       </c>
       <c r="D175" t="n">
-        <v>27.6</v>
+        <v>24.1</v>
       </c>
       <c r="E175" t="n">
-        <v>8.35</v>
+        <v>19.15</v>
       </c>
       <c r="F175" t="n">
-        <v>5.76</v>
+        <v>10.26</v>
       </c>
       <c r="G175" t="n">
-        <v>11.85</v>
+        <v>24.26</v>
       </c>
       <c r="H175" t="n">
-        <v>4.78</v>
+        <v>8.34</v>
       </c>
       <c r="I175" t="n">
-        <v>12.66</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B176" t="s">
         <v>205</v>
       </c>
       <c r="C176" t="n">
-        <v>25.91</v>
+        <v>6.12</v>
       </c>
       <c r="D176" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="E176" t="n">
-        <v>12.71</v>
+        <v>8.35</v>
       </c>
       <c r="F176" t="n">
-        <v>8.58</v>
+        <v>5.76</v>
       </c>
       <c r="G176" t="n">
-        <v>15.56</v>
+        <v>11.85</v>
       </c>
       <c r="H176" t="n">
-        <v>7.5</v>
+        <v>4.78</v>
       </c>
       <c r="I176" t="n">
-        <v>18.95</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
         <v>206</v>
       </c>
       <c r="C177" t="n">
-        <v>10.27</v>
+        <v>25.91</v>
       </c>
       <c r="D177" t="n">
-        <v>14</v>
+        <v>26.4</v>
       </c>
       <c r="E177" t="n">
-        <v>7.05</v>
+        <v>12.71</v>
       </c>
       <c r="F177" t="n">
-        <v>3.99</v>
+        <v>8.58</v>
       </c>
       <c r="G177" t="n">
-        <v>11.3</v>
+        <v>15.56</v>
       </c>
       <c r="H177" t="n">
-        <v>4.29</v>
+        <v>7.5</v>
       </c>
       <c r="I177" t="n">
-        <v>10.24</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B178" t="s">
         <v>207</v>
       </c>
       <c r="C178" t="n">
-        <v>15.69</v>
+        <v>10.27</v>
       </c>
       <c r="D178" t="n">
-        <v>21.2</v>
+        <v>14</v>
       </c>
       <c r="E178" t="n">
-        <v>12.46</v>
+        <v>7.05</v>
       </c>
       <c r="F178" t="n">
-        <v>8.64</v>
+        <v>3.99</v>
       </c>
       <c r="G178" t="n">
-        <v>16.38</v>
+        <v>11.3</v>
       </c>
       <c r="H178" t="n">
-        <v>6.73</v>
+        <v>4.29</v>
       </c>
       <c r="I178" t="n">
-        <v>19.01</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B179" t="s">
         <v>208</v>
       </c>
       <c r="C179" t="n">
-        <v>3.51</v>
+        <v>15.69</v>
       </c>
       <c r="D179" t="n">
-        <v>22.3</v>
+        <v>21.2</v>
       </c>
       <c r="E179" t="n">
-        <v>6.19</v>
+        <v>12.46</v>
       </c>
       <c r="F179" t="n">
-        <v>4.2</v>
+        <v>8.64</v>
       </c>
       <c r="G179" t="n">
-        <v>9.75</v>
+        <v>16.38</v>
       </c>
       <c r="H179" t="n">
-        <v>4.11</v>
+        <v>6.73</v>
       </c>
       <c r="I179" t="n">
-        <v>8.61</v>
+        <v>19.01</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B180" t="s">
         <v>209</v>
       </c>
       <c r="C180" t="n">
-        <v>30.59</v>
+        <v>3.51</v>
       </c>
       <c r="D180" t="n">
-        <v>18.5</v>
+        <v>22.3</v>
       </c>
       <c r="E180" t="n">
-        <v>8.97</v>
+        <v>6.19</v>
       </c>
       <c r="F180" t="n">
-        <v>5.61</v>
+        <v>4.2</v>
       </c>
       <c r="G180" t="n">
-        <v>14.63</v>
+        <v>9.75</v>
       </c>
       <c r="H180" t="n">
-        <v>5.11</v>
+        <v>4.11</v>
       </c>
       <c r="I180" t="n">
-        <v>13.18</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B181" t="s">
         <v>210</v>
       </c>
       <c r="C181" t="n">
-        <v>17.37</v>
+        <v>30.59</v>
       </c>
       <c r="D181" t="n">
-        <v>20.9</v>
+        <v>18.5</v>
       </c>
       <c r="E181" t="n">
-        <v>6.8</v>
+        <v>8.97</v>
       </c>
       <c r="F181" t="n">
-        <v>4.28</v>
+        <v>5.61</v>
       </c>
       <c r="G181" t="n">
-        <v>11.39</v>
+        <v>14.63</v>
       </c>
       <c r="H181" t="n">
-        <v>4.07</v>
+        <v>5.11</v>
       </c>
       <c r="I181" t="n">
-        <v>9.98</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182" t="s">
         <v>211</v>
       </c>
       <c r="C182" t="n">
-        <v>41.37</v>
+        <v>17.37</v>
       </c>
       <c r="D182" t="n">
-        <v>16.1</v>
+        <v>20.9</v>
       </c>
       <c r="E182" t="n">
-        <v>9.35</v>
+        <v>6.8</v>
       </c>
       <c r="F182" t="n">
-        <v>7.52</v>
+        <v>4.28</v>
       </c>
       <c r="G182" t="n">
-        <v>14.48</v>
+        <v>11.39</v>
       </c>
       <c r="H182" t="n">
-        <v>5.16</v>
+        <v>4.07</v>
       </c>
       <c r="I182" t="n">
-        <v>13.93</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B183" t="s">
         <v>212</v>
       </c>
       <c r="C183" t="n">
-        <v>28.57</v>
+        <v>41.37</v>
       </c>
       <c r="D183" t="n">
-        <v>21.1</v>
+        <v>16.1</v>
       </c>
       <c r="E183" t="n">
-        <v>3.45</v>
+        <v>9.35</v>
       </c>
       <c r="F183" t="n">
-        <v>2.86</v>
+        <v>7.52</v>
       </c>
       <c r="G183" t="n">
-        <v>10.12</v>
+        <v>14.48</v>
       </c>
       <c r="H183" t="n">
-        <v>2.1</v>
+        <v>5.16</v>
       </c>
       <c r="I183" t="n">
-        <v>4.85</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B184" t="s">
         <v>213</v>
       </c>
       <c r="C184" t="n">
-        <v>12.33</v>
+        <v>28.57</v>
       </c>
       <c r="D184" t="n">
-        <v>22.7</v>
+        <v>21.1</v>
       </c>
       <c r="E184" t="n">
-        <v>8</v>
+        <v>3.45</v>
       </c>
       <c r="F184" t="n">
-        <v>4.86</v>
+        <v>2.86</v>
       </c>
       <c r="G184" t="n">
-        <v>11.41</v>
+        <v>10.12</v>
       </c>
       <c r="H184" t="n">
-        <v>4.46</v>
+        <v>2.1</v>
       </c>
       <c r="I184" t="n">
-        <v>12.9</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185" t="s">
         <v>214</v>
       </c>
-      <c r="B185" t="s">
-        <v>215</v>
-      </c>
       <c r="C185" t="n">
-        <v>3.7</v>
+        <v>12.33</v>
       </c>
       <c r="D185" t="n">
-        <v>28.2</v>
+        <v>22.7</v>
       </c>
       <c r="E185" t="n">
-        <v>11.97</v>
+        <v>8</v>
       </c>
       <c r="F185" t="n">
-        <v>10.74</v>
+        <v>4.86</v>
       </c>
       <c r="G185" t="n">
-        <v>14.36</v>
+        <v>11.41</v>
       </c>
       <c r="H185" t="n">
-        <v>5.24</v>
+        <v>4.46</v>
       </c>
       <c r="I185" t="n">
-        <v>19.55</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B186" t="s">
         <v>216</v>
       </c>
       <c r="C186" t="n">
-        <v>3.37</v>
+        <v>3.7</v>
       </c>
       <c r="D186" t="n">
-        <v>18.3</v>
+        <v>28.2</v>
       </c>
       <c r="E186" t="n">
-        <v>3.82</v>
+        <v>11.97</v>
       </c>
       <c r="F186" t="n">
-        <v>2.35</v>
+        <v>10.74</v>
       </c>
       <c r="G186" t="n">
-        <v>6.39</v>
+        <v>14.36</v>
       </c>
       <c r="H186" t="n">
-        <v>1.65</v>
+        <v>5.24</v>
       </c>
       <c r="I186" t="n">
-        <v>7.43</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B187" t="s">
         <v>217</v>
       </c>
       <c r="C187" t="n">
-        <v>32.57</v>
+        <v>3.37</v>
       </c>
       <c r="D187" t="n">
-        <v>14.7</v>
+        <v>18.3</v>
       </c>
       <c r="E187" t="n">
-        <v>3.26</v>
+        <v>3.82</v>
       </c>
       <c r="F187" t="n">
-        <v>2.96</v>
+        <v>2.35</v>
       </c>
       <c r="G187" t="n">
-        <v>7.5</v>
+        <v>6.39</v>
       </c>
       <c r="H187" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="I187" t="n">
-        <v>5.18</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B188" t="s">
         <v>218</v>
       </c>
       <c r="C188" t="n">
-        <v>2.77</v>
+        <v>32.57</v>
       </c>
       <c r="D188" t="n">
-        <v>19.9</v>
+        <v>14.7</v>
       </c>
       <c r="E188" t="n">
-        <v>7.45</v>
+        <v>3.26</v>
       </c>
       <c r="F188" t="n">
-        <v>6.55</v>
+        <v>2.96</v>
       </c>
       <c r="G188" t="n">
-        <v>10.61</v>
+        <v>7.5</v>
       </c>
       <c r="H188" t="n">
-        <v>2.82</v>
+        <v>1.27</v>
       </c>
       <c r="I188" t="n">
-        <v>12.37</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>215</v>
+      </c>
+      <c r="B189" t="s">
         <v>219</v>
       </c>
-      <c r="B189" t="s">
-        <v>220</v>
-      </c>
       <c r="C189" t="n">
-        <v>7.97</v>
+        <v>2.77</v>
       </c>
       <c r="D189" t="n">
-        <v>11.9</v>
+        <v>19.9</v>
       </c>
       <c r="E189" t="n">
-        <v>3.6</v>
+        <v>7.45</v>
       </c>
       <c r="F189" t="n">
-        <v>2.97</v>
+        <v>6.55</v>
       </c>
       <c r="G189" t="n">
-        <v>5.73</v>
+        <v>10.61</v>
       </c>
       <c r="H189" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I189" t="n">
-        <v>4.42</v>
+        <v>12.37</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B190" t="s">
         <v>221</v>
       </c>
       <c r="C190" t="n">
-        <v>79.04</v>
+        <v>7.97</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E190" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="F190" t="n">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="G190" t="n">
-        <v>7.37</v>
+        <v>5.73</v>
       </c>
       <c r="H190" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I190" t="n">
-        <v>3.79</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B191" t="s">
         <v>222</v>
       </c>
       <c r="C191" t="n">
-        <v>55.1</v>
+        <v>79.04</v>
       </c>
       <c r="D191" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E191" t="n">
-        <v>3.81</v>
+        <v>3.27</v>
       </c>
       <c r="F191" t="n">
-        <v>3.33</v>
+        <v>2.91</v>
       </c>
       <c r="G191" t="n">
-        <v>8.59</v>
+        <v>7.37</v>
       </c>
       <c r="H191" t="n">
-        <v>3.12</v>
+        <v>2.78</v>
       </c>
       <c r="I191" t="n">
-        <v>4.6</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" t="s">
         <v>223</v>
       </c>
-      <c r="B192" t="s">
-        <v>224</v>
-      </c>
       <c r="C192" t="n">
-        <v>1.13</v>
+        <v>55.1</v>
       </c>
       <c r="D192" t="n">
-        <v>47.1</v>
+        <v>15</v>
       </c>
       <c r="E192" t="n">
-        <v>20.68</v>
+        <v>3.81</v>
       </c>
       <c r="F192" t="n">
-        <v>4.35</v>
+        <v>3.33</v>
       </c>
       <c r="G192" t="n">
-        <v>31.4</v>
+        <v>8.59</v>
       </c>
       <c r="H192" t="n">
-        <v>15.56</v>
+        <v>3.12</v>
       </c>
       <c r="I192" t="n">
-        <v>26.46</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B193" t="s">
         <v>225</v>
       </c>
       <c r="C193" t="n">
-        <v>9.07</v>
+        <v>1.13</v>
       </c>
       <c r="D193" t="n">
-        <v>22.4</v>
+        <v>47.1</v>
       </c>
       <c r="E193" t="n">
-        <v>2.46</v>
+        <v>20.68</v>
       </c>
       <c r="F193" t="n">
-        <v>1.67</v>
+        <v>4.35</v>
       </c>
       <c r="G193" t="n">
-        <v>7.2</v>
+        <v>31.4</v>
       </c>
       <c r="H193" t="n">
-        <v>1.52</v>
+        <v>15.56</v>
       </c>
       <c r="I193" t="n">
-        <v>3.41</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B194" t="s">
         <v>226</v>
       </c>
       <c r="C194" t="n">
-        <v>5.73</v>
+        <v>9.07</v>
       </c>
       <c r="D194" t="n">
-        <v>13.2</v>
+        <v>22.4</v>
       </c>
       <c r="E194" t="n">
-        <v>7.85</v>
+        <v>2.46</v>
       </c>
       <c r="F194" t="n">
-        <v>4.88</v>
+        <v>1.67</v>
       </c>
       <c r="G194" t="n">
-        <v>11.38</v>
+        <v>7.2</v>
       </c>
       <c r="H194" t="n">
-        <v>4.55</v>
+        <v>1.52</v>
       </c>
       <c r="I194" t="n">
-        <v>12.25</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B195" t="s">
         <v>227</v>
       </c>
       <c r="C195" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D195" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I195" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>224</v>
+      </c>
+      <c r="B196" t="s">
+        <v>228</v>
+      </c>
+      <c r="C196" t="n">
         <v>0.21</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D196" t="n">
         <v>31.3</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E196" t="n">
         <v>19.33</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F196" t="n">
         <v>7.15</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G196" t="n">
         <v>26.55</v>
       </c>
-      <c r="H195" t="n">
+      <c r="H196" t="n">
         <v>9.53</v>
       </c>
-      <c r="I195" t="n">
+      <c r="I196" t="n">
         <v>31.05</v>
       </c>
     </row>
